--- a/Auto-Gardener BOM (IN PROGRESS).xlsx
+++ b/Auto-Gardener BOM (IN PROGRESS).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skeeeeeeeeeeeeeeeeee\Documents\College Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7215B32D-EBD5-4185-9647-FC5E66CA2FBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D621ACF8-C712-4C9A-8867-A16673EEE957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,12 +99,6 @@
     <t xml:space="preserve">https://www.adafruit.com/product/4209 </t>
   </si>
   <si>
-    <t>STEMMA QWIIC JST SH CABLE 50MM</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/4399</t>
-  </si>
-  <si>
     <t>JST SH 4-PIN TO PREMIUM MALE HEADER</t>
   </si>
   <si>
@@ -179,6 +173,12 @@
   </si>
   <si>
     <t xml:space="preserve">              For reference, a 1kg spool of PLA filament is generally $20-25.</t>
+  </si>
+  <si>
+    <t>STEMMA QWIIC JST SH CABLE 100MM</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/4210</t>
   </si>
 </sst>
 </file>
@@ -592,7 +592,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -616,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -735,20 +735,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E8" s="6">
         <v>0.95</v>
       </c>
       <c r="F8" s="7">
         <f>E8*B8</f>
-        <v>0.95</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -756,10 +756,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>21</v>
@@ -769,7 +769,7 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" ref="F9:F14" si="0">E9*B9</f>
-        <v>4.75</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -783,7 +783,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="6">
         <v>1.5</v>
@@ -801,10 +801,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6">
         <v>5.95</v>
@@ -822,10 +822,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" s="6">
         <v>3.95</v>
@@ -843,10 +843,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E13" s="6">
         <v>0.97</v>
@@ -864,10 +864,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="E14" s="6">
         <v>0.97</v>
@@ -879,12 +879,12 @@
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="3:6">
@@ -893,7 +893,7 @@
       </c>
       <c r="F18" s="6">
         <f>SUM(F2:F14)</f>
-        <v>83.490000000000009</v>
+        <v>80.640000000000015</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -921,7 +921,7 @@
       </c>
       <c r="F24" s="7">
         <f>F21-F18</f>
-        <v>16.509999999999991</v>
+        <v>19.359999999999985</v>
       </c>
     </row>
   </sheetData>
@@ -932,9 +932,10 @@
     <hyperlink ref="D9" r:id="rId4" xr:uid="{11EB0413-8203-4170-8048-99C40B88025C}"/>
     <hyperlink ref="D10" r:id="rId5" xr:uid="{FAF79B32-1442-40ED-88D9-FC320BFB05F6}"/>
     <hyperlink ref="D11" r:id="rId6" xr:uid="{FED0AC33-D192-4CAF-B3A9-ED1C8C86CECD}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{5296E1BD-7A41-4D84-854F-4E13D31269DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -945,15 +946,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA5ABCDA778E4A4E89EFC4A9F0854CC2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c1ac51ed49ed483b62fc3cec25076d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b7eb377b-c4ff-4e45-9e29-3918d52e59bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c60f42ae85c0d5f5c9e3b6cabde22bb4" ns3:_="">
     <xsd:import namespace="b7eb377b-c4ff-4e45-9e29-3918d52e59bb"/>
@@ -1099,31 +1091,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{593529D7-8F46-42B6-8BBA-C432F74943CC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="b7eb377b-c4ff-4e45-9e29-3918d52e59bb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E2DC82B-1AA0-48D7-96B9-C21544EDCBAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AF1E0D4-A082-4273-BF0A-DD3129452D58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1139,4 +1132,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E2DC82B-1AA0-48D7-96B9-C21544EDCBAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>